--- a/docx/ArbeitsrapportProjektStundenplaner.xlsx
+++ b/docx/ArbeitsrapportProjektStundenplaner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brtoz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brtoz\Codes\IPT5.1\IPT5.1_Stundenplaner-Projekt\docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D7A6A7-C334-41AA-A6D1-C24BE0CD7A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5627DF-46C6-4B83-8115-8C5F4A1B994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1104" yWindow="708" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Sales Report Form" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Hat Berat und Kenan den ganzen Algerithmus erklärt</t>
+  </si>
+  <si>
+    <t>Github Repository docx</t>
   </si>
 </sst>
 </file>
@@ -450,26 +453,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -488,9 +471,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,8 +714,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1"/>
@@ -802,17 +805,17 @@
     <row r="17" spans="1:12" ht="32.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="8" t="s">
         <v>7</v>
       </c>
@@ -828,17 +831,17 @@
     <row r="18" spans="1:12" ht="32.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="30">
+      <c r="C18" s="22">
         <v>45953</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="9">
         <v>30</v>
       </c>
@@ -854,17 +857,17 @@
     <row r="19" spans="1:12" ht="32.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="24">
+      <c r="C19" s="27">
         <v>45953</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="11">
         <v>30</v>
       </c>
@@ -878,17 +881,17 @@
     <row r="20" spans="1:12" ht="32.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="24">
+      <c r="C20" s="27">
         <v>45953</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="11">
         <v>150</v>
       </c>
@@ -902,17 +905,17 @@
     <row r="21" spans="1:12" ht="32.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="24">
+      <c r="C21" s="27">
         <v>45953</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="11">
         <v>15</v>
       </c>
@@ -928,17 +931,17 @@
     <row r="22" spans="1:12" ht="32.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="24">
+      <c r="C22" s="27">
         <v>45953</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="11">
         <v>120</v>
       </c>
@@ -952,17 +955,17 @@
     <row r="23" spans="1:12" ht="32.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="24">
+      <c r="C23" s="27">
         <v>45956</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="11">
         <v>120</v>
       </c>
@@ -976,17 +979,17 @@
     <row r="24" spans="1:12" ht="32.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="24">
+      <c r="C24" s="27">
         <v>45959</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="11">
         <v>90</v>
       </c>
@@ -1000,17 +1003,17 @@
     <row r="25" spans="1:12" ht="32.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="24">
+      <c r="C25" s="27">
         <v>45960</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="11">
         <v>30</v>
       </c>
@@ -1026,17 +1029,17 @@
     <row r="26" spans="1:12" ht="32.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="24">
+      <c r="C26" s="27">
         <v>45960</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="11">
         <v>180</v>
       </c>
@@ -1050,17 +1053,17 @@
     <row r="27" spans="1:12" ht="76.8" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="24">
+      <c r="C27" s="27">
         <v>45960</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="11">
         <v>30</v>
       </c>
@@ -1076,17 +1079,17 @@
     <row r="28" spans="1:12" ht="32.25" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="35">
+      <c r="C28" s="29">
         <v>45960</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="13">
         <v>30</v>
       </c>
@@ -1100,17 +1103,17 @@
     <row r="29" spans="1:12" ht="32.25" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="35">
+      <c r="C29" s="29">
         <v>45960</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="13">
         <v>10</v>
       </c>
@@ -1124,17 +1127,17 @@
     <row r="30" spans="1:12" ht="32.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="35">
+      <c r="C30" s="29">
         <v>45961</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="22"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="13">
         <v>30</v>
       </c>
@@ -1146,13 +1149,23 @@
     <row r="31" spans="1:12" ht="32.25" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
+      <c r="C31" s="29">
+        <v>45961</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="13">
+        <v>10</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="J31" s="14"/>
       <c r="K31" s="7"/>
       <c r="L31" s="1"/>
@@ -1160,11 +1173,11 @@
     <row r="32" spans="1:12" ht="32.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="13"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -1174,11 +1187,11 @@
     <row r="33" spans="1:12" ht="32.25" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="13"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -1188,11 +1201,11 @@
     <row r="34" spans="1:12" ht="32.25" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="13"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -1202,11 +1215,11 @@
     <row r="35" spans="1:12" ht="32.25" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="13"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
@@ -1216,11 +1229,11 @@
     <row r="36" spans="1:12" ht="32.25" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="13"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -1266,11 +1279,11 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="19"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1295,6 +1308,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:G18"/>
@@ -1311,31 +1349,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
